--- a/output/inference_results/test_sheets/batch_003/test_sheet (28).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (28).xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白细胞计数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4--10</t>
+          <t>4-10</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中性粒细胞#</t>
+          <t>中性粒细胞数</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2--7.5</t>
+          <t>2-7.5</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>淋巴细胞#</t>
+          <t>淋巴细胞数</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8--4</t>
+          <t>0.8-4</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>单核细胞#</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.16--1.2</t>
+          <t>0.16-1.2</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞#</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.02--0.5</t>
+          <t>0.02-0.5</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞#</t>
+          <t>嗜碱性粒细胞</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0--0.1</t>
+          <t>0-0.1</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中性粒细胞%</t>
+          <t>中性粒细胞数</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50--75</t>
+          <t>50-75</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>淋巴细胞%</t>
+          <t>淋巴细胞比率</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20--40</t>
+          <t>20-40</t>
         </is>
       </c>
     </row>
@@ -672,12 +672,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>单核细胞%</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4--12</t>
+          <t>4-12</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞%</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.5--5</t>
+          <t>0.5-5</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞%</t>
+          <t>嗜碱性粒细胞</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0--1</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>红细胞计数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10~12/L</t>
+          <t>10^12/L</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.5--5.5</t>
+          <t>3.5-5.5</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>110—-160</t>
+          <t>110-160</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37—-49</t>
+          <t>37-49</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82--95</t>
+          <t>82-95</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>平均红细胞血红蛋白量</t>
+          <t>平均血红蛋白量</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27--31</t>
+          <t>27-31</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>平均红细胞血红蛋白浓度</t>
+          <t>平均血红蛋白浓度</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>320--360</t>
+          <t>320-360</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>红细胞分布宽度SD</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>37—-54</t>
+          <t>37-54</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>红细胞分布宽度CV</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11--16</t>
+          <t>11-16</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>100—-300</t>
+          <t>100-300</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9--17</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.4--12.5</t>
+          <t>9.4-12.5</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.11—-0.27</t>
+          <t>0.11-0.27</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13--43</t>
+          <t>13-43</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RBCDISCRI</t>
+          <t>AST/ALT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1112,11 +1112,7 @@
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1157,19 +1153,11 @@
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>！！</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>！</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
